--- a/Dataset/Folds/Fold_1/Excel/46.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12083" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13667" uniqueCount="2085">
   <si>
     <t>Doi</t>
   </si>
@@ -6237,6 +6237,880 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,                            Hui%Ren%NULL%1,                            Ruilin%Cao%NULL%1,                            Yueyang%Hu%NULL%1,                            Zeying%Qin%NULL%1,                            Chuanen%Li%NULL%1,                            Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                             Roy F.%Baumeister%NULL%1,                             Jennifer C.%Veilleux%NULL%1,                             Caixia%Chen%NULL%1,                             Wenjun%Liu%NULL%1,                             Yongjie%Yue%NULL%1,                             Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                             Xiaopeng%Hu%NULL%1,                             Ivo Otte%Ekumi%NULL%1,                             Jianchun%Wang%NULL%1,                             Yawen%An%NULL%1,                             Zhiwen%Li%NULL%1,                             Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                             Wen%Li%NULL%2,                             Yuan%Yang%NULL%4,                             Yuan%Yang%NULL%0,                             Yu%Wang%NULL%2,                             Qinge%Zhang%NULL%1,                             Teris%Cheung%NULL%2,                             Xinjuan%Wu%NULL%2,                             Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                             Cherica A.%Tee%NULL%1,                             Joseph P.%Anlacan%NULL%1,                             Katrina Joy G.%Aligam%NULL%1,                             Patrick Wincy C.%Reyes%NULL%1,                             Vipat%Kuruchittham%NULL%1,                             Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                             Xiao-You%Su%suxiaoyou@hotmail.com%1,                             Yu%Jiang%jiangyu@pumc.edu.cn%2,                             Yu%Jiang%jiangyu@pumc.edu.cn%0,                             Wen-Jun%Wang%wwjun1973@163.com%1,                             Xiao-Fen%Gu%357539328@qq.com%1,                             Li%Ma%mali_lele@sina.com%1,                             Jing%Li%lijingwcph@scu.edu.cn%0,                             Shao-Kai%Zhang%shaokaizhang@126.com%1,                             Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                             Ran%Ren%renran99@163.com%1,                             Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                             You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                             Helena%Garrido-Hernansaiz%NULL%1,                             Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                             Xiangfen%Su%suxiangfengfy@163.com%1,                             Shuzeng%Zhang%NULL%2,                             Shuzeng%Zhang%NULL%0,                             Wenjie%Guan%NULL%1,                             Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                             Rong-Ning%Chen%NULL%1,                             Li-Li%Liu%NULL%1,                             Xue-Guo%Li%NULL%1,                             Jian-Bin%Chen%NULL%1,                             Si-Yao%Tang%NULL%1,                             Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                             Elisa%Pedroli%NULL%1,                             Guido E.%D'Aniello%NULL%1,                             Chiara%Stramba Badiale%NULL%1,                             Giada%Pietrabissa%NULL%1,                             Chiara%Manna%NULL%1,                             Marco%Stramba Badiale%NULL%1,                             Giuseppe%Riva%NULL%1,                             Gianluca%Castelnuovo%NULL%1,                             Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                             Qing-xian%Li%NULL%1,                             Heng%Zhang%NULL%1,                             Jia-yong%Zhu%NULL%1,                             Xu%Yang%NULL%1,                             Yu-hang%Wu%NULL%1,                             Jie%Xiong%NULL%1,                             Fu%Li%NULL%1,                             Hua%Wang%whzkwlh@126.com%0,                             Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                             Charlotte%Coste%NULL%1,                             Rocio%Sanchez%NULL%1,                             Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                             Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                             Saleh A.%Alrashed%NULL%1,                             Ali A.%Alzunaydi%NULL%1,                             Ahmed S.%Almohimeed%NULL%1,                             Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                             Hui%Shi%NULL%1,                             Zhengkui%Liu%NULL%1,                             Songxu%Peng%gwxypsx@163.com%2,                             Songxu%Peng%gwxypsx@163.com%0,                             Ruoxi%Wang%NULL%2,                             Ruoxi%Wang%NULL%0,                             Ling%Qi%NULL%1,                             Zezhi%Li%NULL%1,                             Jiezhi%Yang%NULL%1,                             Yali%Ren%NULL%1,                             Xiuli%Song%NULL%1,                             Lingyun%Zeng%NULL%1,                             Wei%Qian%NULL%1,                             Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                             Zheng Feei%Ma%NULL%4,                             Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                             Zhuoer%Sun%NULL%3,                             Zhuoer%Sun%NULL%0,                             Tuanjie%Liu%NULL%1,                             Xiong%Ni%NULL%1,                             Xuanfeng%Deng%NULL%1,                             Yanpu%Jia%NULL%2,                             Zhilei%Shang%NULL%2,                             Yaoguang%Zhou%NULL%2,                             Weizhi%Liu%13024141970@163.com%3,                             Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                             N.%Hadjamu%NULL%2,                             N.%Hadjamu%NULL%0,                             G.%Willmund%NULL%1,                             S.%Dolff%NULL%1,                             N.%Vonderlin%NULL%1,                             R.%Wakili%NULL%1,                             J.%Vogel%NULL%1,                             T.%Rassaf%NULL%1,                             J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                             Riyu%Pan%NULL%1,                             Xiaoyang%Wan%NULL%1,                             Yilin%Tan%NULL%1,                             Linkang%Xu%NULL%1,                             Roger S.%McIntyre%NULL%3,                             Faith N.%Choo%NULL%1,                             Bach%Tran%NULL%3,                             Roger%Ho%NULL%3,                             Vijay K.%Sharma%NULL%2,                             Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                             Jithin Thomas%Parel%NULL%2,                             Jithin Thomas%Parel%NULL%0,                             Neeraj%Raizada%NULL%2,                             Neeraj%Raizada%NULL%0,                             Shiv Kumar%Sarin%NULL%1,                             Abdallah M.%Samy%NULL%2,                             Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                             Rene%Stefitz%NULL%1,                             Kerstin%Gaisbachgrabner%NULL%1,                             Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                             Tao%Hu%NULL%1,                             Baodi%Hu%NULL%1,                             Chunhan%Jin%NULL%1,                             Gang%Wang%NULL%1,                             Chao%Xie%NULL%1,                             Sen%Chen%NULL%1,                             Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                             Fengyi%Hao%NULL%1,                             Roger S.%McIntyre%NULL%0,                             Li%Jiang%NULL%2,                             Xiaojiang%Jiang%NULL%2,                             Ling%Zhang%NULL%2,                             Xinling%Zhao%NULL%2,                             Yiran%Zou%NULL%2,                             Yirong%Hu%NULL%2,                             Xi%Luo%NULL%2,                             Zhisong%Zhang%NULL%2,                             Andre%Lai%NULL%1,                             Roger%Ho%NULL%0,                             Bach%Tran%NULL%0,                             Cyrus%Ho%NULL%0,                             Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                             Wenning%Fu%NULL%2,                             Xiaoran%Liu%NULL%2,                             Zhiqian%Luo%NULL%2,                             Rixing%Wang%NULL%2,                             Ning%Zhou%NULL%2,                             Shijiao%Yan%NULL%3,                             Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                             Mark L%Williams%NULL%1,                             Benjamin C%Amick%NULL%1,                             Teresa J.%Hudson%NULL%1,                             Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                             Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                             Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                             Necdet%Sut%necdetsut@yahoo.com%2,                             Necdet%Sut%necdetsut@yahoo.com%0,                             Selma%Akdogan%drslma.akdogan@gmail.com%2,                             Selma%Akdogan%drslma.akdogan@gmail.com%0,                             Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                             Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                             Valentina%Socci%NULL%3,                             Dalila%Talevi%NULL%1,                             Sonia%Mensi%NULL%1,                             Cinzia%Niolu%NULL%1,                             Francesca%Pacitti%NULL%3,                             Antinisca%Di Marco%NULL%3,                             Alessandro%Rossi%NULL%3,                             Alberto%Siracusano%NULL%3,                             Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                             Valentina%Socci%NULL%0,                             Francesca%Pacitti%NULL%0,                             Giorgio%Di Lorenzo%NULL%0,                             Antinisca%Di Marco%NULL%0,                             Alberto%Siracusano%NULL%0,                             Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                             Marianna%Purgato%NULL%1,                             Chiara%Bove%NULL%1,                             David%MacTaggart%NULL%1,                             Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                             Wei%Chen%NULL%2,                             Saiduo%Liu%NULL%2,                             Paul M.%Thompson%NULL%2,                             Long Jiang%Zhang%NULL%2,                             Fei%Xia%NULL%3,                             Fang%Cheng%NULL%3,                             Ailing%Hong%NULL%2,                             Wesley%Surento%NULL%2,                             Song%Luo%NULL%2,                             Zhi Yuan%Sun%NULL%2,                             Chang Sheng%Zhou%NULL%2,                             Lingjiang%Li%NULL%2,                             Xiangao%Jiang%NULL%2,                             Guang Ming%Lu%NULL%2,                              R.%Qi%null%2,                              W.% Chen%null%2,                              S.% Liu%null%2,                              P. M.% Thompson%null%2,                              L. J.% Zhang%null%2,                              F.% Xia%null%2,                              F.% Cheng%null%2,                              A.% Hong%null%2,                              W.% Surento%null%2,                              S.% Luo%null%2,                              Z. Y.% Sun%null%2,                              C. S.% Zhou%null%2,                              L.% Li%null%2,                              X.% Jiang%null%2,                              G. M. % Lu%null%2,                            R.%Qi%null%1,                            W.% Chen%null%1,                            S.% Liu%null%1,                            P. M.% Thompson%null%1,                            L. J.% Zhang%null%1,                            F.% Xia%null%1,                            F.% Cheng%null%1,                            A.% Hong%null%1,                            W.% Surento%null%1,                            S.% Luo%null%1,                            Z. Y.% Sun%null%1,                            C. S.% Zhou%null%1,                            L.% Li%null%1,                            X.% Jiang%null%1,                            G. M. % Lu%null%1,          R.%Qi%null%2,          W.% Chen%null%2,          S.% Liu%null%2,          P. M.% Thompson%null%2,          L. J.% Zhang%null%2,          F.% Xia%null%2,          F.% Cheng%null%2,          A.% Hong%null%2,          W.% Surento%null%2,          S.% Luo%null%2,          Z. Y.% Sun%null%2,          C. S.% Zhou%null%2,          L.% Li%null%2,          X.% Jiang%null%2,          G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                             Yutong%Zhang%NULL%2,                             Yutong%Zhang%NULL%0,                             Xiaoqin%Luo%NULL%1,                             Xinli%Li%NULL%1,                             Yeshan%Li%NULL%1,                             Shuchang%Liu%NULL%1,                             Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                             Beatriz%Talavera-Velasco%NULL%2,                             Beatriz%Talavera-Velasco%NULL%0,                             Yolanda%García-Albuerne%NULL%1,                             Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                             Fan%Zhang%NULL%1,                             Cun%Wei%NULL%1,                             Yanpu%Jia%NULL%0,                             Zhilei%Shang%NULL%0,                             Luna%Sun%NULL%1,                             Lili%Wu%NULL%1,                             Zhuoer%Sun%NULL%0,                             Yaoguang%Zhou%NULL%0,                             Yan%Wang%NULL%1,                             Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                             Emily%Zhang%NULL%1,                             Ga Tin Fifi%Wong%NULL%1,                             Sunah%Hyun%NULL%1,                             Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                             Yue%Wang%NULL%1,                             Jingwen%Jiang%NULL%1,                             Unnur A.%Valdimarsdóttir%NULL%1,                             Katja%Fall%NULL%2,                             Katja%Fall%NULL%0,                             Fang%Fang%NULL%4,                             Fang%Fang%NULL%0,                             Huan%Song%NULL%1,                             Donghao%Lu%NULL%1,                             Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                             Peixin%Lu%NULL%1,                             Lianting%Hu%NULL%1,                             Tianhui%Huang%NULL%1,                             Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                             Anh Kim%Dang%NULL%1,                             Jayson%Toweh%NULL%1,                             Quang Nhat%Nguyen%NULL%1,                             Huong Thi%Le%NULL%1,                             Toan Thi Thanh%Do%NULL%1,                             Hanh Bich Thi%Phan%NULL%1,                             Thao Thanh%Nguyen%NULL%1,                             Quan Thi%Pham%NULL%1,                             Nhung Kim Thi%Ta%NULL%1,                             Quynh Thi%Nguyen%NULL%1,                             Anh Ngoc%Nguyen%NULL%1,                             Quan%Van Duong%NULL%1,                             Men Thi%Hoang%NULL%1,                             Hai Quang%Pham%NULL%1,                             Linh Gia%Vu%NULL%1,                             Bach Xuan%Tran%NULL%1,                             Carl A.%Latkin%NULL%1,                             Cyrus S. H.%Ho%NULL%1,                             Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                             S.%Joo%NULL%1,                             P.-A.%Couette%NULL%1,                             S.%de Jaegher%NULL%1,                             F.%Joly%NULL%1,                             X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                             Simeng%Ma%NULL%2,                             Ying%Wang%NULL%4,                             Zhongxiang%Cai%NULL%2,                             Jianbo%Hu%NULL%2,                             Ning%Wei%NULL%2,                             Jiang%Wu%NULL%3,                             Hui%Du%NULL%2,                             Tingting%Chen%NULL%2,                             Ruiting%Li%NULL%2,                             Huawei%Tan%NULL%2,                             Lijun%Kang%NULL%2,                             Lihua%Yao%NULL%2,                             Manli%Huang%NULL%2,                             Huafen%Wang%NULL%2,                             Gaohua%Wang%NULL%3,                             Zhongchun%Liu%NULL%3,                             Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                             Mark%Shevlin%NULL%1,                             Jamie%Murphy%NULL%1,                             Orla%McBride%NULL%1,                             Menachem%Ben‐Ezra%NULL%2,                             Menachem%Ben‐Ezra%NULL%0,                             Richard P.%Bentall%NULL%1,                             Frédérique%Vallières%NULL%1,                             Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                             Stephanie%Manasse%NULL%2,                             Stephanie%Manasse%NULL%0,                             Rebecca A.%Krukowski%NULL%2,                             Rebecca A.%Krukowski%NULL%0,                             Kathryn%Ross%NULL%2,                             Kathryn%Ross%NULL%0,                             Rebecca%Shakour%NULL%2,                             Rebecca%Shakour%NULL%0,                             Darci R.%Miller%NULL%1,                             Dominick J.%Lemas%NULL%1,                             Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                             Xing Lin%Feng%NULL%1,                             Xiao Hua%Wang%NULL%2,                             Xiao Hua%Wang%NULL%0,                             Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                             Berta%Ausín%NULL%1,                             Miguel Ángel%Castellanos%NULL%1,                             Jesús%Saiz%NULL%1,                             Aída%López-Gómez%NULL%1,                             Carolina%Ugidos%NULL%1,                             Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                             Reyna Jazmín%Martínez Arriaga%NULL%2,                             Reyna Jazmín%Martínez Arriaga%NULL%0,                             Martha Alicia%Hernández-Gonzalez%NULL%2,                             Martha Alicia%Hernández-Gonzalez%NULL%0,                             José María%De la Roca-Chiapas%NULL%2,                             José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                             Francesca%Favieri%NULL%2,                             Francesca%Favieri%NULL%0,                             Renata%Tambelli%NULL%2,                             Renata%Tambelli%NULL%0,                             Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                             Farah%Ghrissi%NULL%1,                             Bouthaina%Abbassi%NULL%1,                             Wissal%Cherif%NULL%1,                             Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                             Enayat M.%Soltan%enayatsoltan@gmail.com%2,                             Enayat M.%Soltan%enayatsoltan@gmail.com%0,                             Hend M.%Salama%hind_mikhail@yahoo.com%2,                             Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                             Charles B%Malpas%NULL%2,                             Charles B%Malpas%NULL%0,                             Aidan JC%Burrell%NULL%1,                             Caroline%Gurvich%NULL%1,                             Leo%Chen%NULL%1,                             Jayashri%Kulkarni%NULL%1,                             Toby%Winton-Brown%NULL%2,                             Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                             Regino%Piñeiro-Lamas%NULL%1,                             César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                             Yasmeen%Byrnes%NULL%2,                             Yasmeen%Byrnes%NULL%0,                             Changgee%Chang%NULL%2,                             Aman%Prasad%NULL%1,                             Kevin%Chorath%NULL%2,                             Kevin%Chorath%NULL%0,                             Seerat K.%Poonia%NULL%1,                             Carolyn M.%Jenks%NULL%1,                             Andrés M.%Bur%NULL%1,                             Punam%Thakkar%NULL%2,                             Punam%Thakkar%NULL%0,                             Evan M.%Graboyes%NULL%2,                             Evan M.%Graboyes%NULL%0,                             Rahul%Seth%NULL%2,                             Rahul%Seth%NULL%0,                             Samuel%Trosman%NULL%1,                             Anni%Wong%NULL%2,                             Anni%Wong%NULL%0,                             Benjamin M.%Laitman%NULL%1,                             Brianna N.%Harris%NULL%1,                             Janki%Shah%NULL%2,                             Janki%Shah%NULL%0,                             Vanessa%Stubbs%NULL%1,                             Garret%Choby%NULL%1,                             Qi%Long%NULL%2,                             Christopher H.%Rassekh%NULL%1,                             Erica%Thaler%NULL%1,                             Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                             Antonio%Bertelli%NULL%1,                             Antonio%Gonçalves%NULL%1,                             Emily%Getzen%NULL%1,                             Changgee%Chang%NULL%0,                             Qi%Long%NULL%0,                             Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                             Benjamin%Becker%NULL%2,                             Qian%Yu%NULL%2,                             Peter%Willeit%NULL%2,                             Can%Jiao%NULL%2,                             Liuyue%Huang%NULL%2,                             M. Mahhub%Hossain%NULL%2,                             Igor%Grabovac%NULL%2,                             Albert%Yeung%NULL%2,                             Jingyuan%Lin%NULL%2,                             Nicola%Veronese%NULL%2,                             Jian%Wang%NULL%3,                             Xinqi%Zhou%NULL%2,                             Scott R.%Doig%NULL%2,                             Xiaofeng%Liu%NULL%2,                             Andre F.%Carvalho%NULL%2,                             Lin%Yang%NULL%4,                             Tao%Xiao%NULL%2,                             Liye%Zou%NULL%2,                             Paolo%Fusar-Poli%NULL%2,                             Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                             Jinghao Nicholas%Ngiam%NULL%1,                             Benjamin Yong-Qiang%Tan%NULL%2,                             Benjamin Yong-Qiang%Tan%NULL%0,                             Sai-Meng%Tham%NULL%1,                             Celine Yan-Shan%Tan%NULL%1,                             Mingxue%Jing%NULL%1,                             Renarebecca%Sagayanathan%NULL%1,                             Jin Tao%Chen%NULL%1,                             Lily Y. H.%Wong%NULL%1,                             Aftab%Ahmad%NULL%1,                             Faheem Ahmed%Khan%NULL%1,                             Maznah%Marmin%NULL%1,                             Fadhlina Binte%Hassan%NULL%1,                             Tai Mei-Ling%Sharon%NULL%1,                             Chin Han%Lim%NULL%1,                             Mohamad Iqbal Bin%Mohaini%NULL%1,                             Rivan%Danuaji%NULL%1,                             Thang H.%Nguyen%NULL%1,                             Georgios%Tsivgoulis%NULL%1,                             Sotirios%Tsiodras%NULL%1,                             Paraskevi C.%Fragkou%NULL%1,                             Dimitra%Dimopoulou%NULL%2,                             Dimitra%Dimopoulou%NULL%0,                             Arvind K.%Sharma%NULL%1,                             Kenam%Shah%NULL%1,                             Bhargesh%Patel%NULL%1,                             Suktara%Sharma%NULL%1,                             R. N.%Komalkumar%NULL%1,                             R. V.%Meenakshi%NULL%1,                             Shikha%Talati%NULL%1,                             Hock Luen%Teoh%NULL%1,                             Cyrus S.%Ho%NULL%1,                             Roger C.%Ho%NULL%0,                             Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                             Qin%Cui%NULL%1,                             Zhongchun%Liu%NULL%0,                             Juanjuan%Li%NULL%1,                             Xuan%Gong%NULL%1,                             Jingfang%Liu%NULL%1,                             Zhiying%Wan%NULL%1,                             Xiaoping%Yuan%NULL%1,                             Xiaofen%Li%NULL%1,                             Chuang%Chen%NULL%1,                             Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                             Zheng Feei%Ma%NULL%0,                             Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                             Wanqiu%Tan%NULL%1,                             Li%Jiang%NULL%0,                             Ling%Zhang%NULL%0,                             Xinling%Zhao%NULL%0,                             Yiran%Zou%NULL%0,                             Yirong%Hu%NULL%0,                             Xi%Luo%NULL%0,                             Xiaojiang%Jiang%NULL%0,                             Roger S.%McIntyre%NULL%0,                             Bach%Tran%NULL%0,                             Jiaqian%Sun%NULL%1,                             Zhisong%Zhang%NULL%0,                             Roger%Ho%NULL%0,                             Cyrus%Ho%NULL%0,                             Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                             Hui%Ren%NULL%1,                             Ruilin%Cao%NULL%1,                             Yueyang%Hu%NULL%1,                             Zeying%Qin%NULL%1,                             Chuanen%Li%NULL%1,                             Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                              Roy F.%Baumeister%NULL%1,                              Jennifer C.%Veilleux%NULL%1,                              Caixia%Chen%NULL%1,                              Wenjun%Liu%NULL%1,                              Yongjie%Yue%NULL%1,                              Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                              Xiaopeng%Hu%NULL%1,                              Ivo Otte%Ekumi%NULL%1,                              Jianchun%Wang%NULL%1,                              Yawen%An%NULL%1,                              Zhiwen%Li%NULL%1,                              Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                              Wen%Li%NULL%2,                              Yuan%Yang%NULL%4,                              Yuan%Yang%NULL%0,                              Yu%Wang%NULL%2,                              Qinge%Zhang%NULL%1,                              Teris%Cheung%NULL%2,                              Xinjuan%Wu%NULL%2,                              Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                              Cherica A.%Tee%NULL%1,                              Joseph P.%Anlacan%NULL%1,                              Katrina Joy G.%Aligam%NULL%1,                              Patrick Wincy C.%Reyes%NULL%1,                              Vipat%Kuruchittham%NULL%1,                              Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                              Xiao-You%Su%suxiaoyou@hotmail.com%1,                              Yu%Jiang%jiangyu@pumc.edu.cn%2,                              Yu%Jiang%jiangyu@pumc.edu.cn%0,                              Wen-Jun%Wang%wwjun1973@163.com%1,                              Xiao-Fen%Gu%357539328@qq.com%1,                              Li%Ma%mali_lele@sina.com%1,                              Jing%Li%lijingwcph@scu.edu.cn%0,                              Shao-Kai%Zhang%shaokaizhang@126.com%1,                              Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                              Ran%Ren%renran99@163.com%1,                              Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                              You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                              Helena%Garrido-Hernansaiz%NULL%1,                              Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                              Xiangfen%Su%suxiangfengfy@163.com%1,                              Shuzeng%Zhang%NULL%2,                              Shuzeng%Zhang%NULL%0,                              Wenjie%Guan%NULL%1,                              Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                              Rong-Ning%Chen%NULL%1,                              Li-Li%Liu%NULL%1,                              Xue-Guo%Li%NULL%1,                              Jian-Bin%Chen%NULL%1,                              Si-Yao%Tang%NULL%1,                              Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                              Elisa%Pedroli%NULL%1,                              Guido E.%D'Aniello%NULL%1,                              Chiara%Stramba Badiale%NULL%1,                              Giada%Pietrabissa%NULL%1,                              Chiara%Manna%NULL%1,                              Marco%Stramba Badiale%NULL%1,                              Giuseppe%Riva%NULL%1,                              Gianluca%Castelnuovo%NULL%1,                              Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                              Qing-xian%Li%NULL%1,                              Heng%Zhang%NULL%1,                              Jia-yong%Zhu%NULL%1,                              Xu%Yang%NULL%1,                              Yu-hang%Wu%NULL%1,                              Jie%Xiong%NULL%1,                              Fu%Li%NULL%1,                              Hua%Wang%whzkwlh@126.com%0,                              Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                              Charlotte%Coste%NULL%1,                              Rocio%Sanchez%NULL%1,                              Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                              Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                              Saleh A.%Alrashed%NULL%1,                              Ali A.%Alzunaydi%NULL%1,                              Ahmed S.%Almohimeed%NULL%1,                              Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                              Hui%Shi%NULL%1,                              Zhengkui%Liu%NULL%1,                              Songxu%Peng%gwxypsx@163.com%2,                              Songxu%Peng%gwxypsx@163.com%0,                              Ruoxi%Wang%NULL%2,                              Ruoxi%Wang%NULL%0,                              Ling%Qi%NULL%1,                              Zezhi%Li%NULL%1,                              Jiezhi%Yang%NULL%1,                              Yali%Ren%NULL%1,                              Xiuli%Song%NULL%1,                              Lingyun%Zeng%NULL%1,                              Wei%Qian%NULL%1,                              Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                              Zheng Feei%Ma%NULL%4,                              Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                              Zhuoer%Sun%NULL%3,                              Zhuoer%Sun%NULL%0,                              Tuanjie%Liu%NULL%1,                              Xiong%Ni%NULL%1,                              Xuanfeng%Deng%NULL%1,                              Yanpu%Jia%NULL%2,                              Zhilei%Shang%NULL%2,                              Yaoguang%Zhou%NULL%2,                              Weizhi%Liu%13024141970@163.com%3,                              Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                              N.%Hadjamu%NULL%2,                              N.%Hadjamu%NULL%0,                              G.%Willmund%NULL%1,                              S.%Dolff%NULL%1,                              N.%Vonderlin%NULL%1,                              R.%Wakili%NULL%1,                              J.%Vogel%NULL%1,                              T.%Rassaf%NULL%1,                              J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                              Riyu%Pan%NULL%1,                              Xiaoyang%Wan%NULL%1,                              Yilin%Tan%NULL%1,                              Linkang%Xu%NULL%1,                              Roger S.%McIntyre%NULL%3,                              Faith N.%Choo%NULL%1,                              Bach%Tran%NULL%3,                              Roger%Ho%NULL%3,                              Vijay K.%Sharma%NULL%2,                              Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                              Jithin Thomas%Parel%NULL%2,                              Jithin Thomas%Parel%NULL%0,                              Neeraj%Raizada%NULL%2,                              Neeraj%Raizada%NULL%0,                              Shiv Kumar%Sarin%NULL%1,                              Abdallah M.%Samy%NULL%2,                              Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                              Rene%Stefitz%NULL%1,                              Kerstin%Gaisbachgrabner%NULL%1,                              Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                              Tao%Hu%NULL%1,                              Baodi%Hu%NULL%1,                              Chunhan%Jin%NULL%1,                              Gang%Wang%NULL%1,                              Chao%Xie%NULL%1,                              Sen%Chen%NULL%1,                              Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                              Fengyi%Hao%NULL%1,                              Roger S.%McIntyre%NULL%0,                              Li%Jiang%NULL%2,                              Xiaojiang%Jiang%NULL%2,                              Ling%Zhang%NULL%2,                              Xinling%Zhao%NULL%2,                              Yiran%Zou%NULL%2,                              Yirong%Hu%NULL%2,                              Xi%Luo%NULL%2,                              Zhisong%Zhang%NULL%2,                              Andre%Lai%NULL%1,                              Roger%Ho%NULL%0,                              Bach%Tran%NULL%0,                              Cyrus%Ho%NULL%0,                              Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                              Wenning%Fu%NULL%2,                              Xiaoran%Liu%NULL%2,                              Zhiqian%Luo%NULL%2,                              Rixing%Wang%NULL%2,                              Ning%Zhou%NULL%2,                              Shijiao%Yan%NULL%3,                              Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                              Mark L%Williams%NULL%1,                              Benjamin C%Amick%NULL%1,                              Teresa J.%Hudson%NULL%1,                              Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                              Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                              Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                              Necdet%Sut%necdetsut@yahoo.com%2,                              Necdet%Sut%necdetsut@yahoo.com%0,                              Selma%Akdogan%drslma.akdogan@gmail.com%2,                              Selma%Akdogan%drslma.akdogan@gmail.com%0,                              Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                              Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                              Valentina%Socci%NULL%3,                              Dalila%Talevi%NULL%1,                              Sonia%Mensi%NULL%1,                              Cinzia%Niolu%NULL%1,                              Francesca%Pacitti%NULL%3,                              Antinisca%Di Marco%NULL%3,                              Alessandro%Rossi%NULL%3,                              Alberto%Siracusano%NULL%3,                              Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                              Valentina%Socci%NULL%0,                              Francesca%Pacitti%NULL%0,                              Giorgio%Di Lorenzo%NULL%0,                              Antinisca%Di Marco%NULL%0,                              Alberto%Siracusano%NULL%0,                              Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                              Marianna%Purgato%NULL%1,                              Chiara%Bove%NULL%1,                              David%MacTaggart%NULL%1,                              Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                              Wei%Chen%NULL%2,                              Saiduo%Liu%NULL%2,                              Paul M.%Thompson%NULL%2,                              Long Jiang%Zhang%NULL%2,                              Fei%Xia%NULL%3,                              Fang%Cheng%NULL%3,                              Ailing%Hong%NULL%2,                              Wesley%Surento%NULL%2,                              Song%Luo%NULL%2,                              Zhi Yuan%Sun%NULL%2,                              Chang Sheng%Zhou%NULL%2,                              Lingjiang%Li%NULL%2,                              Xiangao%Jiang%NULL%2,                              Guang Ming%Lu%NULL%2,                               R.%Qi%null%2,                               W.% Chen%null%2,                               S.% Liu%null%2,                               P. M.% Thompson%null%2,                               L. J.% Zhang%null%2,                               F.% Xia%null%2,                               F.% Cheng%null%2,                               A.% Hong%null%2,                               W.% Surento%null%2,                               S.% Luo%null%2,                               Z. Y.% Sun%null%2,                               C. S.% Zhou%null%2,                               L.% Li%null%2,                               X.% Jiang%null%2,                               G. M. % Lu%null%2,                             R.%Qi%null%1,                             W.% Chen%null%1,                             S.% Liu%null%1,                             P. M.% Thompson%null%1,                             L. J.% Zhang%null%1,                             F.% Xia%null%1,                             F.% Cheng%null%1,                             A.% Hong%null%1,                             W.% Surento%null%1,                             S.% Luo%null%1,                             Z. Y.% Sun%null%1,                             C. S.% Zhou%null%1,                             L.% Li%null%1,                             X.% Jiang%null%1,                             G. M. % Lu%null%1,           R.%Qi%null%2,           W.% Chen%null%2,           S.% Liu%null%2,           P. M.% Thompson%null%2,           L. J.% Zhang%null%2,           F.% Xia%null%2,           F.% Cheng%null%2,           A.% Hong%null%2,           W.% Surento%null%2,           S.% Luo%null%2,           Z. Y.% Sun%null%2,           C. S.% Zhou%null%2,           L.% Li%null%2,           X.% Jiang%null%2,           G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                              Yutong%Zhang%NULL%2,                              Yutong%Zhang%NULL%0,                              Xiaoqin%Luo%NULL%1,                              Xinli%Li%NULL%1,                              Yeshan%Li%NULL%1,                              Shuchang%Liu%NULL%1,                              Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                              Beatriz%Talavera-Velasco%NULL%2,                              Beatriz%Talavera-Velasco%NULL%0,                              Yolanda%García-Albuerne%NULL%1,                              Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                              Fan%Zhang%NULL%1,                              Cun%Wei%NULL%1,                              Yanpu%Jia%NULL%0,                              Zhilei%Shang%NULL%0,                              Luna%Sun%NULL%1,                              Lili%Wu%NULL%1,                              Zhuoer%Sun%NULL%0,                              Yaoguang%Zhou%NULL%0,                              Yan%Wang%NULL%1,                              Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                              Emily%Zhang%NULL%1,                              Ga Tin Fifi%Wong%NULL%1,                              Sunah%Hyun%NULL%1,                              Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                              Yue%Wang%NULL%1,                              Jingwen%Jiang%NULL%1,                              Unnur A.%Valdimarsdóttir%NULL%1,                              Katja%Fall%NULL%2,                              Katja%Fall%NULL%0,                              Fang%Fang%NULL%4,                              Fang%Fang%NULL%0,                              Huan%Song%NULL%1,                              Donghao%Lu%NULL%1,                              Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                              Peixin%Lu%NULL%1,                              Lianting%Hu%NULL%1,                              Tianhui%Huang%NULL%1,                              Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                              Anh Kim%Dang%NULL%1,                              Jayson%Toweh%NULL%1,                              Quang Nhat%Nguyen%NULL%1,                              Huong Thi%Le%NULL%1,                              Toan Thi Thanh%Do%NULL%1,                              Hanh Bich Thi%Phan%NULL%1,                              Thao Thanh%Nguyen%NULL%1,                              Quan Thi%Pham%NULL%1,                              Nhung Kim Thi%Ta%NULL%1,                              Quynh Thi%Nguyen%NULL%1,                              Anh Ngoc%Nguyen%NULL%1,                              Quan%Van Duong%NULL%1,                              Men Thi%Hoang%NULL%1,                              Hai Quang%Pham%NULL%1,                              Linh Gia%Vu%NULL%1,                              Bach Xuan%Tran%NULL%1,                              Carl A.%Latkin%NULL%1,                              Cyrus S. H.%Ho%NULL%1,                              Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                              S.%Joo%NULL%1,                              P.-A.%Couette%NULL%1,                              S.%de Jaegher%NULL%1,                              F.%Joly%NULL%1,                              X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                              Simeng%Ma%NULL%2,                              Ying%Wang%NULL%4,                              Zhongxiang%Cai%NULL%2,                              Jianbo%Hu%NULL%2,                              Ning%Wei%NULL%2,                              Jiang%Wu%NULL%3,                              Hui%Du%NULL%2,                              Tingting%Chen%NULL%2,                              Ruiting%Li%NULL%2,                              Huawei%Tan%NULL%2,                              Lijun%Kang%NULL%2,                              Lihua%Yao%NULL%2,                              Manli%Huang%NULL%2,                              Huafen%Wang%NULL%2,                              Gaohua%Wang%NULL%3,                              Zhongchun%Liu%NULL%3,                              Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                              Mark%Shevlin%NULL%1,                              Jamie%Murphy%NULL%1,                              Orla%McBride%NULL%1,                              Menachem%Ben‐Ezra%NULL%2,                              Menachem%Ben‐Ezra%NULL%0,                              Richard P.%Bentall%NULL%1,                              Frédérique%Vallières%NULL%1,                              Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                              Stephanie%Manasse%NULL%2,                              Stephanie%Manasse%NULL%0,                              Rebecca A.%Krukowski%NULL%2,                              Rebecca A.%Krukowski%NULL%0,                              Kathryn%Ross%NULL%2,                              Kathryn%Ross%NULL%0,                              Rebecca%Shakour%NULL%2,                              Rebecca%Shakour%NULL%0,                              Darci R.%Miller%NULL%1,                              Dominick J.%Lemas%NULL%1,                              Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                              Xing Lin%Feng%NULL%1,                              Xiao Hua%Wang%NULL%2,                              Xiao Hua%Wang%NULL%0,                              Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                              Berta%Ausín%NULL%1,                              Miguel Ángel%Castellanos%NULL%1,                              Jesús%Saiz%NULL%1,                              Aída%López-Gómez%NULL%1,                              Carolina%Ugidos%NULL%1,                              Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                              Reyna Jazmín%Martínez Arriaga%NULL%2,                              Reyna Jazmín%Martínez Arriaga%NULL%0,                              Martha Alicia%Hernández-Gonzalez%NULL%2,                              Martha Alicia%Hernández-Gonzalez%NULL%0,                              José María%De la Roca-Chiapas%NULL%2,                              José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                              Francesca%Favieri%NULL%2,                              Francesca%Favieri%NULL%0,                              Renata%Tambelli%NULL%2,                              Renata%Tambelli%NULL%0,                              Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                              Farah%Ghrissi%NULL%1,                              Bouthaina%Abbassi%NULL%1,                              Wissal%Cherif%NULL%1,                              Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                              Enayat M.%Soltan%enayatsoltan@gmail.com%2,                              Enayat M.%Soltan%enayatsoltan@gmail.com%0,                              Hend M.%Salama%hind_mikhail@yahoo.com%2,                              Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                              Charles B%Malpas%NULL%2,                              Charles B%Malpas%NULL%0,                              Aidan JC%Burrell%NULL%1,                              Caroline%Gurvich%NULL%1,                              Leo%Chen%NULL%1,                              Jayashri%Kulkarni%NULL%1,                              Toby%Winton-Brown%NULL%2,                              Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                              Regino%Piñeiro-Lamas%NULL%1,                              César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                              Yasmeen%Byrnes%NULL%2,                              Yasmeen%Byrnes%NULL%0,                              Changgee%Chang%NULL%2,                              Aman%Prasad%NULL%1,                              Kevin%Chorath%NULL%2,                              Kevin%Chorath%NULL%0,                              Seerat K.%Poonia%NULL%1,                              Carolyn M.%Jenks%NULL%1,                              Andrés M.%Bur%NULL%1,                              Punam%Thakkar%NULL%2,                              Punam%Thakkar%NULL%0,                              Evan M.%Graboyes%NULL%2,                              Evan M.%Graboyes%NULL%0,                              Rahul%Seth%NULL%2,                              Rahul%Seth%NULL%0,                              Samuel%Trosman%NULL%1,                              Anni%Wong%NULL%2,                              Anni%Wong%NULL%0,                              Benjamin M.%Laitman%NULL%1,                              Brianna N.%Harris%NULL%1,                              Janki%Shah%NULL%2,                              Janki%Shah%NULL%0,                              Vanessa%Stubbs%NULL%1,                              Garret%Choby%NULL%1,                              Qi%Long%NULL%2,                              Christopher H.%Rassekh%NULL%1,                              Erica%Thaler%NULL%1,                              Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                              Antonio%Bertelli%NULL%1,                              Antonio%Gonçalves%NULL%1,                              Emily%Getzen%NULL%1,                              Changgee%Chang%NULL%0,                              Qi%Long%NULL%0,                              Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                              Benjamin%Becker%NULL%2,                              Qian%Yu%NULL%2,                              Peter%Willeit%NULL%2,                              Can%Jiao%NULL%2,                              Liuyue%Huang%NULL%2,                              M. Mahhub%Hossain%NULL%2,                              Igor%Grabovac%NULL%2,                              Albert%Yeung%NULL%2,                              Jingyuan%Lin%NULL%2,                              Nicola%Veronese%NULL%2,                              Jian%Wang%NULL%3,                              Xinqi%Zhou%NULL%2,                              Scott R.%Doig%NULL%2,                              Xiaofeng%Liu%NULL%2,                              Andre F.%Carvalho%NULL%2,                              Lin%Yang%NULL%4,                              Tao%Xiao%NULL%2,                              Liye%Zou%NULL%2,                              Paolo%Fusar-Poli%NULL%2,                              Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                              Jinghao Nicholas%Ngiam%NULL%1,                              Benjamin Yong-Qiang%Tan%NULL%2,                              Benjamin Yong-Qiang%Tan%NULL%0,                              Sai-Meng%Tham%NULL%1,                              Celine Yan-Shan%Tan%NULL%1,                              Mingxue%Jing%NULL%1,                              Renarebecca%Sagayanathan%NULL%1,                              Jin Tao%Chen%NULL%1,                              Lily Y. H.%Wong%NULL%1,                              Aftab%Ahmad%NULL%1,                              Faheem Ahmed%Khan%NULL%1,                              Maznah%Marmin%NULL%1,                              Fadhlina Binte%Hassan%NULL%1,                              Tai Mei-Ling%Sharon%NULL%1,                              Chin Han%Lim%NULL%1,                              Mohamad Iqbal Bin%Mohaini%NULL%1,                              Rivan%Danuaji%NULL%1,                              Thang H.%Nguyen%NULL%1,                              Georgios%Tsivgoulis%NULL%1,                              Sotirios%Tsiodras%NULL%1,                              Paraskevi C.%Fragkou%NULL%1,                              Dimitra%Dimopoulou%NULL%2,                              Dimitra%Dimopoulou%NULL%0,                              Arvind K.%Sharma%NULL%1,                              Kenam%Shah%NULL%1,                              Bhargesh%Patel%NULL%1,                              Suktara%Sharma%NULL%1,                              R. N.%Komalkumar%NULL%1,                              R. V.%Meenakshi%NULL%1,                              Shikha%Talati%NULL%1,                              Hock Luen%Teoh%NULL%1,                              Cyrus S.%Ho%NULL%1,                              Roger C.%Ho%NULL%0,                              Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                              Qin%Cui%NULL%1,                              Zhongchun%Liu%NULL%0,                              Juanjuan%Li%NULL%1,                              Xuan%Gong%NULL%1,                              Jingfang%Liu%NULL%1,                              Zhiying%Wan%NULL%1,                              Xiaoping%Yuan%NULL%1,                              Xiaofen%Li%NULL%1,                              Chuang%Chen%NULL%1,                              Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                              Zheng Feei%Ma%NULL%0,                              Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                              Wanqiu%Tan%NULL%1,                              Li%Jiang%NULL%0,                              Ling%Zhang%NULL%0,                              Xinling%Zhao%NULL%0,                              Yiran%Zou%NULL%0,                              Yirong%Hu%NULL%0,                              Xi%Luo%NULL%0,                              Xiaojiang%Jiang%NULL%0,                              Roger S.%McIntyre%NULL%0,                              Bach%Tran%NULL%0,                              Jiaqian%Sun%NULL%1,                              Zhisong%Zhang%NULL%0,                              Roger%Ho%NULL%0,                              Cyrus%Ho%NULL%0,                              Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                              Hui%Ren%NULL%1,                              Ruilin%Cao%NULL%1,                              Yueyang%Hu%NULL%1,                              Zeying%Qin%NULL%1,                              Chuanen%Li%NULL%1,                              Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The prevalence rate of clinically significant depression, anxiety, and PTSD symptoms for hospital discharged patients are respectively 19%, 10.4%, and 12.4%.
+</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%0, Roy F.%Baumeister%NULL%1, Jennifer C.%Veilleux%NULL%1, Caixia%Chen%NULL%1, Wenjun%Liu%NULL%1, Yongjie%Yue%NULL%1, Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Yael%Lahav%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              This study aimed to the psychological distress and the associated predictor factors of the 2019 corona-virus disease (COVID-19) survivors in early recovery stage across ages in Shenzhen, China.
+</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%0, Xiaopeng%Hu%NULL%1, Ivo Otte%Ekumi%NULL%1, Jianchun%Wang%NULL%1, Yawen%An%NULL%1, Zhiwen%Li%NULL%1, Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Association for Geriatric Psychiatry. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0, Wen%Li%NULL%0, Yuan%Yang%NULL%0, Yuan%Yang%NULL%0, Yu%Wang%NULL%0, Qinge%Zhang%NULL%0, Teris%Cheung%NULL%0, Xinjuan%Wu%NULL%0, Yu-Tao%Xiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Students report moderate-to-severe psychological impact of the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%0, Cherica A.%Tee%NULL%1, Joseph P.%Anlacan%NULL%1, Katrina Joy G.%Aligam%NULL%1, Patrick Wincy C.%Reyes%NULL%1, Vipat%Kuruchittham%NULL%1, Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%0, Xiao-You%Su%suxiaoyou@hotmail.com%1, Yu%Jiang%jiangyu@pumc.edu.cn%2, Yu%Jiang%jiangyu@pumc.edu.cn%0, Wen-Jun%Wang%wwjun1973@163.com%1, Xiao-Fen%Gu%357539328@qq.com%1, Li%Ma%mali_lele@sina.com%1, Jing%Li%lijingwcph@scu.edu.cn%0, Shao-Kai%Zhang%shaokaizhang@126.com%1, Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1, Ran%Ren%renran99@163.com%1, Yuan-Li%Liu%liuyuanli_pumc@163.com%1, You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outbreak of COVID-19 in Spain started at the end of February.
+ By 9th April 2020 Spain was the second country in confirmed cases and in deaths.
+ On March 14, 2020, the Spanish Government declared the state of alarm to limit viral transmission.
+ During such state, citizens must stay confined at home with few justified exceptions.
+ This whole situation drastically changed the life of the population, which can cause a wide range of psychosocial impacts.
+ This study explored the psychological impact of the COVID-19 pandemic in the general adult population (N = 3055) during the first stages of the outbreak in Spain, as well as their anxiety, stress and depression levels.
+ We also examined the extent to which the following variables were associated to participants’ mental health: (1) demographics; (2) degree of concern about the pandemic; (3) environmental conditions during the home confinement, (4) changes in daily life as a consequence of the pandemic; (5) contact with the COVID-19 disease; (6) actual and perceived severity of the crisis; (7) information about the COVID-19, (8) perceived health status and (9) leisure activities conducted within the last 24 h.
+ Our results show that Spanish consider the current COVID-19 health crisis as fairly severe, and the majority felt that the COVID-19 crisis had greatly impacted on their daily life, including changes in their daily routines and cancelation of important activities.
+ About 36% of the participants reported moderate to severe psychological impact, 25% showed mild to severe levels of anxiety, 41% reported depressive symptoms, and 41% felt stressed.
+ Women, young, and those who that lost their job during the health crisis showed the strongest negative psychological symptoms.
+ What worried Spaniards the most was the likelihood of suffering an economic crisis derived from the pandemic.
+ We found factors associated with better mental health, such as being satisfied with the information received about the health crisis, conducting leisure activities, and the perception of being in good health.
+ These findings can be used to design psychological interventions to help coping with COVID-19 pandemic, both in Spain and other countries.
+</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%0, Helena%Garrido-Hernansaiz%NULL%1, Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%0, Xiangfen%Su%suxiangfengfy@163.com%1, Shuzeng%Zhang%NULL%2, Shuzeng%Zhang%NULL%0, Wenjie%Guan%NULL%1, Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%0, Rong-Ning%Chen%NULL%1, Li-Li%Liu%NULL%1, Xue-Guo%Li%NULL%1, Jian-Bin%Chen%NULL%1, Si-Yao%Tang%NULL%1, Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: The COVID-19 pandemic had a massive impact on health care systems, increasing the risks of psychological distress in health professionals.
+ This study aims at assessing the prevalence of burnout and psychopathological conditions in health professionals working in a health institution in the Northern Italy, and to identify socio-demographic, work-related and psychological predictors of burnout.
+</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%0, Elisa%Pedroli%NULL%2, Guido E.%D'Aniello%NULL%2, Chiara%Stramba Badiale%NULL%2, Giada%Pietrabissa%NULL%2, Chiara%Manna%NULL%2, Marco%Stramba Badiale%NULL%2, Giuseppe%Riva%NULL%2, Gianluca%Castelnuovo%NULL%2, Enrico%Molinari%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;To assess the psychological effects of the novel coronavirus disease (COVID-19) on medical staff and the general public.
+ During the outbreak of COVID-19, an internet-based questionnaire included The Self-rating Depression Scale (SDS), Perceived Stress Scale (PSS-10), and Impact of Event Scale-Revised (IES-R) was used to assess the impact of the pandemic situation on the mental health of medical staff and general population in Wuhan and its surrounding areas.
+ Among the 1493 questionnaires completed, 827 (55.39%) of these were men, and 422 (28.27%) of these were medical personnel.
+ The results suggest that the outbreak of COVID-19 has affected individuals significantly, the degree of which is related to age, sex, occupation and mental illness.
+ There was a significant difference in PSS-10 and IES-R scores between the medical staff and the general population.
+ The medical staff showed higher PSS-10 scores (16.813 ± 4.87) and IES-R scores (22.40 ± 12.12) compared to members of the general population PSS-10 (14.80 ± 5.60) and IES-R scores (17.89 ± 13.08).
+ However, there was no statistically significant difference between the SDS scores of medical staff (44.52 ± 12.36) and the general public (43.08 ± 11.42).
+ In terms of the need for psychological assistance, 50.97% of interviewees responded that they needed psychological counseling, of which medical staff accounted for 65.87% and non-medical staff accounted for 45.10%.
+ During the ongoing COVID-19 outbreak, great attention should be paid to the mental health of the population, especially medical staff, and measures such as psychological intervention should be actively carried out for reducing the psychosocial effects.
+</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%0, Qing-xian%Li%NULL%1, Heng%Zhang%NULL%0, Jia-yong%Zhu%NULL%1, Xu%Yang%NULL%1, Yu-hang%Wu%NULL%1, Jie%Xiong%NULL%2, Fu%Li%NULL%1, Hua%Wang%whzkwlh@126.com%0, Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%0, Charlotte%Coste%NULL%1, Rocio%Sanchez%NULL%1, Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>Société française d'anesthésie et de réanimation (Sfar). Published by Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%0, Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%0, Saleh A.%Alrashed%NULL%1, Ali A.%Alzunaydi%NULL%1, Ahmed S.%Almohimeed%NULL%1, Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Coronavirus disease 2019 (COVID-19) is rapidly spreading worldwide, with a staggering number of cases and deaths.
+ However, available data on the psychological impacts of COVID-19 on pregnant women are limited.
+ The purposes of this study were to assess the prevalence of psychiatric symptoms among pregnant women, and to compare them with non-pregnant women.
+ From February 28 to March 12, 2020, a cross-sectional study of pregnant and non-pregnant women was performed in China.
+ The online questionnaire was used to collect information of participants.
+ The mental health status was assessed by patient health questionnaire, generalized anxiety disorder scale, insomnia severity index, somatization subscale of the symptom checklist 90, and post-traumatic stress disorder (PTSD) checklist-5. Totally, 859 respondents were enrolled, including 544 pregnant women and 315 non-pregnant women.
+ In this study, 5.3%, 6.8%, 2.4%, 2.6%, and 0.9% of pregnant women were identified to have symptoms of depression, anxiety, physical discomfort, insomnia, and PTSD, respectively.
+ However, the corresponding prevalence rates among non-pregnant women were 17.5%, 17.5%, 2.5%, 5.4%, 5.7%, respectively.
+ After adjusting for other covariates, we observed that pregnancy was associated a reduced risk of symptoms of depression (OR = 0.23; 95% CI: 0.12–0.45), anxiety (OR = 0.26; 95% CI: 0.16–0.42), insomnia (OR = 0.19; 95% CI: 0.06–0.58), and PTSD (OR = 0.15; 95% CI: 0.04–0.53) during the COVID-19 epidemic.
+ Our results indicate that during the COVID-19 epidemic in China, pregnant women have an advantage of facing mental problems caused by COVID-19, showing fewer depression, anxiety, insomnia, and PTSD symptoms than non-pregnant women.
+</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%0, Hui%Shi%NULL%0, Zhengkui%Liu%NULL%1, Songxu%Peng%gwxypsx@163.com%2, Songxu%Peng%gwxypsx@163.com%0, Ruoxi%Wang%NULL%2, Ruoxi%Wang%NULL%0, Ling%Qi%NULL%1, Zezhi%Li%NULL%1, Jiezhi%Yang%NULL%1, Yali%Ren%NULL%1, Xiuli%Song%NULL%1, Lingyun%Zeng%NULL%1, Wei%Qian%NULL%1, Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our study aimed to investigate the immediate impact of the COVID-19 pandemic on mental health and quality of life among local Chinese residents aged ≥18 years in Liaoning Province, mainland China.
+ An online survey was distributed through a social media platform between January and February 2020. Participants completed a modified validated questionnaire that assessed the Impact of Event Scale (IES), indicators of negative mental health impacts, social and family support, and mental health-related lifestyle changes.
+ A total of 263 participants (106 males and 157 females) completed the study.
+ The mean age of the participants was 37.7 ± 14.0 years, and 74.9% had a high level of education.
+ The mean IES score in the participants was 13.6 ± 7.7, reflecting a mild stressful impact.
+ Only 7.6% of participants had an IES score ≥26. The majority of participants (53.3%) did not feel helpless due to the pandemic.
+ On the other hand, 52.1% of participants felt horrified and apprehensive due to the pandemic.
+ Additionally, the majority of participants (57.8–77.9%) received increased support from friends and family members, increased shared feeling and caring with family members and others.
+ In conclusion, the COVID-19 pandemic was associated with mild stressful impact in our sample, even though the COVID-19 pandemic is still ongoing.
+ These findings would need to be verified in larger population studies.
+</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0, Zheng Feei%Ma%NULL%0, Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corona virus disease 2019 (COVID‐19) outbreak has attracted worldwide attention.
+ The COVID‐19 outbreak is unique in its rapid transmission and results in heavy stress for the front‐line health care workers (HCWs).
+ The current study aimed to exam posttraumatic stress symptoms (PTSSs) of HCWs fighting for the COVID‐19 and to evaluate their sleep quality after 1‐month stressful suffering.
+ Three hundred seventy‐seven HCWs working in different provinces of China participated in the survey between February 1 and 5. The demographic information was collected first.
+ Posttraumatic Stress Disorder Checklist for DSM‐5 (PCL‐5) and the Pittsburgh Sleep Quality Index (PSQI) were selected to measure PTSSs and sleep quality.
+ Results showed that 1 month after the outbreak, the prevalence of PTSSs was 3.8% in HCWs.
+ Female HCWs were more vulnerable to PTSSs with hazard ratio of 2.136 (95% CI = 1.388–3.286).
+ HCWs with higher exposure level also significantly rated more hyperarousal symptoms (hazard ratio = 4.026, 95% CI = 1.233–13.140).
+ There was a significant difference of sleep quality between participants with and without PTSSs (z value = 6.014, p &amp;lt; .
+001) and among different groups with various contact frequencies (chi‐square = 7.307, p = .
+026).
+ Path analysis showed that there was a significant indirect effect from exposure level to PTSSs through sleep quality (coefficient = 1.750, 95% CI of Boostroop test = 0.543–2.998).
+ In summary, targeted interventions on sleep contribute to the mental recovery during the outbreak of COVID‐19. Understanding the mental health response after a public health emergency might help HCWs and communities prepare for a population's response to disaster.
+</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%0, Zhuoer%Sun%NULL%0, Zhuoer%Sun%NULL%0, Tuanjie%Liu%NULL%1, Xiong%Ni%NULL%1, Xuanfeng%Deng%NULL%1, Yanpu%Jia%NULL%0, Zhilei%Shang%NULL%0, Yaoguang%Zhou%NULL%0, Weizhi%Liu%13024141970@163.com%0, Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%0, N.%Hadjamu%NULL%2, N.%Hadjamu%NULL%0, G.%Willmund%NULL%1, S.%Dolff%NULL%1, N.%Vonderlin%NULL%1, R.%Wakili%NULL%1, J.%Vogel%NULL%1, T.%Rassaf%NULL%1, J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              A significant reduction in psychological impact 4 weeks after COVID outbreak.
+</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0, Riyu%Pan%NULL%0, Xiaoyang%Wan%NULL%0, Yilin%Tan%NULL%0, Linkang%Xu%NULL%0, Roger S.%McIntyre%NULL%4, Faith N.%Choo%NULL%2, Bach%Tran%NULL%4, Roger%Ho%NULL%4, Vijay K.%Sharma%NULL%0, Cyrus%Ho%NULL%4]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%0, Jithin Thomas%Parel%NULL%2, Jithin Thomas%Parel%NULL%0, Neeraj%Raizada%NULL%2, Neeraj%Raizada%NULL%0, Shiv Kumar%Sarin%NULL%1, Abdallah M.%Samy%NULL%2, Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%0, Rene%Stefitz%NULL%1, Kerstin%Gaisbachgrabner%NULL%1, Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%0, Tao%Hu%NULL%1, Baodi%Hu%NULL%1, Chunhan%Jin%NULL%1, Gang%Wang%NULL%1, Chao%Xie%NULL%1, Sen%Chen%NULL%1, Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The psychological effects of returning to work during the COVID-19 pandemic is unknown.
+</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%0, Fengyi%Hao%NULL%0, Roger S.%McIntyre%NULL%0, Li%Jiang%NULL%2, Xiaojiang%Jiang%NULL%2, Ling%Zhang%NULL%0, Xinling%Zhao%NULL%2, Yiran%Zou%NULL%2, Yirong%Hu%NULL%2, Xi%Luo%NULL%2, Zhisong%Zhang%NULL%2, Andre%Lai%NULL%1, Roger%Ho%NULL%0, Bach%Tran%NULL%0, Cyrus%Ho%NULL%0, Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              A considerable number of medical staff suffered from depressive symptoms and PTSD.
+</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%0, Wenning%Fu%NULL%0, Xiaoran%Liu%NULL%3, Zhiqian%Luo%NULL%3, Rixing%Wang%NULL%3, Ning%Zhou%NULL%0, Shijiao%Yan%NULL%4, Chuanzhu%Lv%NULL%4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 pandemic has had a dramatic effect on the functioning of individuals and institutions around the world.
+ This cross-sectional registry-based study examined some of the burdens of the pandemic, the prevalence of mental health difficulties, and risk factors for psychosocial morbidity among community residents in Arkansas.
+ The study focused on a period of gradual reopening but rising infection rates.
+ The investigation included validated screening measures of depressive symptoms (PHQ-9), generalized anxiety (GAD-7), trauma-related symptoms (PCL-5), and alcohol use (AUDIT-C).
+ A notable percentage of participants reported elevated symptoms on each of these outcomes.
+ In separate multivariable analyses that accounted for a number of demographic and pandemic-related covariates, individuals who reported greater pandemic-related disruption in daily life, and those with a prior history of mental health concerns, were more likely to screen positive for depressive, anxiety and trauma-related symptoms.
+ Findings illuminate burdens experienced by community residents during a period of phased reopening, and offer a foundation for future screening and intervention initiatives.
+</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%0, Mark L%Williams%NULL%1, Benjamin C%Amick%NULL%1, Teresa J.%Hudson%NULL%1, Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%0, Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2, Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0, Necdet%Sut%necdetsut@yahoo.com%2, Necdet%Sut%necdetsut@yahoo.com%0, Selma%Akdogan%drslma.akdogan@gmail.com%2, Selma%Akdogan%drslma.akdogan@gmail.com%0, Vedat%Hamuryudan%vhamuryudan@yahoo.com%2, Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0, Valentina%Socci%NULL%3, Dalila%Talevi%NULL%1, Sonia%Mensi%NULL%1, Cinzia%Niolu%NULL%1, Francesca%Pacitti%NULL%3, Antinisca%Di Marco%NULL%3, Alessandro%Rossi%NULL%3, Alberto%Siracusano%NULL%3, Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This cross-sectional study reports on symptoms of posttraumatic stress disorder, depression, anxiety, and insomnia among health care workers in Italy during the coronavirus disease 2019 (COVID-19) pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0, Valentina%Socci%NULL%0, Francesca%Pacitti%NULL%0, Giorgio%Di Lorenzo%NULL%0, Antinisca%Di Marco%NULL%0, Alberto%Siracusano%NULL%0, Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current COVID-19 pandemic has been officially linked to the deaths of hundreds of thousands of people across the globe in just a few months.
+ It is particularly lethal for the elderly in general, as well as for populations residing in long-term stay facilities.
+ By this time, those working and caring for high-risk populations have been exposed to very intense and sudden levels of physical and psychological strain.
+ The situation has taken a particularly tragic turn in residential nursing and care homes (NCH), which were hit hard by the pandemic.
+ In residential NCH, neither residents nor workers tend to have immediate access to the same expertise, medication and equipment as in hospitals, which exacerbates an already tense situation.
+ Among the mental health conditions related to exposure to potentially traumatic events, post-traumatic stress disorder and anxiety are the most prevalent and scientifically recognized.
+ In this survey-based epidemiological study, we test the prevalence of anxiety and post-traumatic symptomatology in residential nursing and care home workers—a group of individuals that has been largely neglected but who nonetheless plays a very important and sensitive role in our society.
+ We do this by focusing on the North of Italy, the most affected region during the first COVID-19 outbreak in Italy.
+ Using a single-stage cluster design, our study returns an estimate for the prevalence of moderate-to-severe anxiety and/or post-traumatic symptomatology of 43% (s.
+e.
+ = 3.09; 95% CI [37–49]), with an 18% (s.
+e.
+ = 1.83; 95% CI [14–22]) prevalence of comorbidity among workers of Northern Italian NCH between 15 June and 25 July 2020 (i.
+e.
+ 12–52 days after the end of national lockdown).
+ Women and workers who had recently been in contact with COVID-19-positive patients/colleagues are more likely to report moderate-to-severe symptoms, with odds ratios of 2.2 and 1.7, respectively.
+</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%0, Marianna%Purgato%NULL%1, Chiara%Bove%NULL%1, David%MacTaggart%NULL%1, Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Royal Society</t>
+  </si>
+  <si>
+    <t>Psychological morbidities and fatigue in patients with confirmed COVID-19 during disease outbreak: prevalence and associated biopsychosocial risk factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective:
+id="P2"&gt;The coronavirus disease 2019 (COVID-19) - a novel and highly infectious pneumonia - has now spread across China and beyond for over four months.
+ However, its psychological impact on patients is unclear.
+ We aim to examine the prevalence and associated risk factors for psychological morbidities and fatigue in patients with confirmed COVID-19 infection.
+Methods:
+id="P3"&gt;Amidst the disease outbreak, 41 out of 105 COVID-19 patients in a local designated hospital in China were successfully assessed using a constellation of psychometric questionnaires to determine their psychological morbidities and fatigue.
+ Several potential biopsychosocial risk factors (including pre-existing disabilities, CT severity score of pneumonia, social support, coping strategies) were assessed through multivariable logistic regression analyses to clarify their association with mental health in patients.
+Results:
+id="P4"&gt;43.9% of 41 patients presented with impaired general mental health, 12.2% had post-traumatic stress disorder (PTSD) symptoms, 26.8% had anxiety and/or depression symptoms, and 53.6% had fatigue.
+ We did not find any association between pneumonia severity and psychological morbidities or fatigue in COVID-19 patients.
+ However, high perceived stigmatization was associated with an increased risk of impaired general mental health and high perceived social support was associated with decreased risk.
+ Besides, negative coping inclination was associated with an increased risk of PTSD symptoms; high perceived social support was associated with a decreased risk of anxiety and/or depression symptoms.
+Conclusions:
+id="P5"&gt;Psychological morbidities and chronic fatigue are common among COVID-19 patients.
+ Negative coping inclination and being stigmatized are primary risk factors while perceived social support is the main protective factor.
+</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%0, Wei%Chen%NULL%0, Saiduo%Liu%NULL%2, Paul M.%Thompson%NULL%2, Long Jiang%Zhang%NULL%3, Fei%Xia%NULL%4, Fang%Cheng%NULL%3, Ailing%Hong%NULL%2, Wesley%Surento%NULL%2, Song%Luo%NULL%3, Zhi Yuan%Sun%NULL%3, Chang Sheng%Zhou%NULL%3, Lingjiang%Li%NULL%2, Xiangao%Jiang%NULL%2, Guang Ming%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>PMC7273270</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%0, Yutong%Zhang%NULL%2, Yutong%Zhang%NULL%0, Xiaoqin%Luo%NULL%1, Xinli%Li%NULL%1, Yeshan%Li%NULL%0, Shuchang%Liu%NULL%1, Yingfei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of health workers infected with COVID-19 in Spain is one of the highest in the world.
+ The aim of this study is to analyse posttraumatic stress, anxiety and depression during the COVID-19 pandemic.
+ Associations between burnout, resilience, demographic, work and COVID-19 variables are analysed.
+ Cross-sectional data on 1422 health workers were analysed.
+ A total of 56.6% of health workers present symptoms of posttraumatic stress disorder, 58.6% anxiety disorder, 46% depressive disorder and 41.1% feel emotionally drained.
+ The profile of a health worker with greater posttraumatic stress symptoms would be a person who works in the Autonomous Community of Madrid, in a hospital, is a woman, is concerned that a person he/she lives with may be infected, and thinks that he/she is very likely to be infected.
+ The risk variables for anxiety and depression would be a person that is a woman, working 12- or 24-h shifts, and being worried that a family member could be infected.
+ High scores on emotional exhaustion and depersonalization are risk factors for mental health, with resilience and personal fulfilment being protective variables.
+ Data are provided to improve preventive measures for occupational health workers.
+</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%0, Beatriz%Talavera-Velasco%NULL%2, Beatriz%Talavera-Velasco%NULL%0, Yolanda%García-Albuerne%NULL%1, Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The prevalence of posttraumatic stress symptoms (PTSS) in China hardest-hit areas a month after the COVID-19 outbreak was 7%.
+</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0, Fan%Zhang%NULL%0, Cun%Wei%NULL%0, Yanpu%Jia%NULL%0, Zhilei%Shang%NULL%0, Luna%Sun%NULL%0, Lili%Wu%NULL%0, Zhuoer%Sun%NULL%0, Yaoguang%Zhou%NULL%0, Yan%Wang%NULL%0, Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Young adults showed high rates of loneliness during the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%0, Emily%Zhang%NULL%1, Ga Tin Fifi%Wong%NULL%1, Sunah%Hyun%NULL%1, Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%0, Yue%Wang%NULL%0, Jingwen%Jiang%NULL%1, Unnur A.%Valdimarsdóttir%NULL%1, Katja%Fall%NULL%2, Katja%Fall%NULL%0, Fang%Fang%NULL%0, Fang%Fang%NULL%0, Huan%Song%NULL%1, Donghao%Lu%NULL%1, Wei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The outbreak and worldwide spread of COVID-19 has resulted in a high prevalence of mental health problems in China and other countries.
+ This was a cross-sectional study conducted using an online survey and face-to-face interviews to assess mental health problems and the associated factors among Chinese citizens with income losses exposed to COVID-19. The degrees of the depression, anxiety, insomnia, and distress symptoms of our participants were assessed using the Chinese versions of the Patient Health Questionnaire-9 (PHQ-9), the Generalized Anxiety Disorder-7 (GAD-7), the Insomnia Severity Index-7 (ISI-7), and the revised 7-item Impact of Event Scale (IES-7) scales, respectively, which found that the prevalence rates of depression, anxiety, insomnia, and distress caused by COVID-19 were 45.5%, 49.5%, 30.9%, and 68.1%, respectively.
+ Multivariable logistic regression analysis was performed to identify factors associated with mental health outcomes among workers with income losses during COVID-19. Participants working in Hubei province with heavy income losses, especially pregnant women, were found to have a high risk of developing unfavorable mental health symptoms and may need psychological support or interventions.
+</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%0, Peixin%Lu%NULL%1, Lianting%Hu%NULL%1, Tianhui%Huang%NULL%1, Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q%Li%qingli_gxmu123@163.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the first time in Vietnam that people have undergone “social distancing” to minimize the spreading of infectious disease, COVID-19. These deliberate preemptive strategies may have profound impacts on the mental health of the population.
+ Therefore, this study aimed to identify the psychological impacts of COVID-19 on Vietnamese people and associated factors.
+ We conducted a cross-sectional study during a one-week social distancing and isolation from April 7 to 14, 2020, in Vietnam.
+ A snowball sampling technique was carried out to recruit participants.
+ Impact of Event Scale-Revised (IES-R) was utilized to assess the psychological impacts of the COVID-19. Of all participants, 233 (16.4%) reported low level of PTSS; 76 (5.3%) rated as moderate, and 77 (5.4%) reported extreme psychological conditions.
+ Being female, above 44 years old, or having a higher number of children in the family were positively associated with a higher level of psychological distress.
+ Being self-employed/unemployed/retired was associated with a higher score of intrusion and hyperarousal subscale.
+ Individuals who have a history of touching objects with the possibility of spreading coronavirus (utensils) were related to a higher level of avoidance.
+ There were relatively high rates of participants suffering from PTSS during the first national lockdown related to COVID-19. Comprehensive strategies for the screen of psychological problems and to support high-risk groups are critical, especially females, middle-aged adults and the elderly, affected laborers, and health care professionals.
+</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%0, Anh Kim%Dang%NULL%1, Jayson%Toweh%NULL%1, Quang Nhat%Nguyen%NULL%1, Huong Thi%Le%NULL%1, Toan Thi Thanh%Do%NULL%1, Hanh Bich Thi%Phan%NULL%1, Thao Thanh%Nguyen%NULL%1, Quan Thi%Pham%NULL%1, Nhung Kim Thi%Ta%NULL%1, Quynh Thi%Nguyen%NULL%1, Anh Ngoc%Nguyen%NULL%1, Quan%Van Duong%NULL%1, Men Thi%Hoang%NULL%1, Hai Quang%Pham%NULL%1, Linh Gia%Vu%NULL%1, Bach Xuan%Tran%NULL%1, Carl A.%Latkin%NULL%1, Cyrus S. H.%Ho%NULL%1, Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              This study showed the psychological impact of COVID-19 in community pharmacists.
+</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%0, S.%Joo%NULL%1, P.-A.%Couette%NULL%1, S.%de Jaegher%NULL%1, F.%Joly%NULL%1, X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>Académie Nationale de Pharmacie. Published by Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0, Simeng%Ma%NULL%0, Ying%Wang%NULL%0, Zhongxiang%Cai%NULL%0, Jianbo%Hu%NULL%0, Ning%Wei%NULL%0, Jiang%Wu%NULL%0, Hui%Du%NULL%0, Tingting%Chen%NULL%0, Ruiting%Li%NULL%0, Huawei%Tan%NULL%0, Lijun%Kang%NULL%0, Lihua%Yao%NULL%0, Manli%Huang%NULL%0, Huafen%Wang%NULL%0, Gaohua%Wang%NULL%0, Zhongchun%Liu%NULL%0, Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The prevalence of posttraumatic stress disorder (PTSD) as it relates to individuals’ experiences of the COVID‐19 pandemic has yet to be determined.
+ This study was conducted to determine rates of COVID‐19–related PTSD in the Irish general population, the level of comorbidity with depression and anxiety, and the sociodemographic risk factors associated with COVID‐19–related PTSD.
+ A nationally representative sample of adults from the general population of the Republic of Ireland (N = 1,041) completed self‐report measures of all study variables.
+ The rate of COVID‐19–related PTSD was 17.7% (n = 184), 95% CI [15.35%, 19.99%], and there was a high level of comorbidity with generalized anxiety (49.5%) and depression (53.8%).
+ Meeting the diagnostic requirement for COVID‐19–related PTSD was associated with younger age, male sex, living in a city, living with children, moderate and high perceived risk of COVID‐19 infection, and screening positive for anxiety or depression.
+ Posttraumatic stress symptoms related to the COVID‐19 pandemic are common in the general population.
+ Our results show that health professionals responsible for responding to the COVID‐19 pandemic should expect to routinely encounter symptoms and concerns related to posttraumatic stress.
+</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%0, Mark%Shevlin%NULL%1, Jamie%Murphy%NULL%1, Orla%McBride%NULL%1, Menachem%Ben‐Ezra%NULL%2, Menachem%Ben‐Ezra%NULL%0, Richard P.%Bentall%NULL%1, Frédérique%Vallières%NULL%1, Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%0, Stephanie%Manasse%NULL%2, Stephanie%Manasse%NULL%0, Rebecca A.%Krukowski%NULL%2, Rebecca A.%Krukowski%NULL%0, Kathryn%Ross%NULL%2, Kathryn%Ross%NULL%0, Rebecca%Shakour%NULL%2, Rebecca%Shakour%NULL%0, Darci R.%Miller%NULL%1, Dominick J.%Lemas%NULL%1, Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 pandemic might lead to more mental health problems.
+ However, few studies have examined sleep problems, depression, and posttraumatic symptoms among the general adult population during the COVID-19 outbreak, and little is known about coping behaviors.
+ This survey was conducted online in China from February 1st to February 10th, 2020. Quota sampling was used to recruit 2993 Chinese citizens aged ≥18 years old.
+ Mental health problems were assessed with the Post-Traumatic Stress Disorders (PTSD) Checklist for the Diagnostic and Statistical Manual of Mental Disorders, Fifth Edition (DSM-5), the Center for Epidemiological Studies Depression inventory, and the Pittsburgh Sleep Quality Index.
+ Exposure to COVID-19 was measured with questions about residence at outbreak, personal exposure, media exposure, and impact on livelihood.
+ General coping style was measured by the brief Coping Style Questionnaire (SCSQ).
+ Respondents were also asked 12 additional questions about COVID-19 specific coping behaviors.
+ Direct exposure to COVID-19 instead of the specific location of (temporary) residence within or outside the epicenter (Wuhan) of the pandemic seems important (standardized beta: 0.05, 95% confidence interval (CI): 0.02–0.09).
+ Less mental health problems were also associated with less intense exposure through the media (standardized beta: −0.07, 95% CI: −0.10–−0.03).
+ Perceived negative impact of the pandemic on livelihood showed a large effect size in predicting mental health problems (standardized beta: 0.15, 95% CI: 0.10–0.19).
+ More use of cognitive and prosocial coping behaviors were associated with less mental health problems (standardized beta: −0.30, 95% CI: −0.34–−0.27).
+ Our study suggests that the mental health consequences of the lockdown impact on livelihood should not be underestimated.
+ Building on cognitive coping behaviors reappraisal or cognitive behavioral treatments may be most promising.
+</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%0, Xing Lin%Feng%NULL%1, Xiao Hua%Wang%NULL%2, Xiao Hua%Wang%NULL%0, Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The 18.7% of the sample revealed depressive symptomatology, the 21.6% anxiety and the 15.8% PSTD.
+</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0, Berta%Ausín%NULL%2, Miguel Ángel%Castellanos%NULL%2, Jesús%Saiz%NULL%2, Aída%López-Gómez%NULL%2, Carolina%Ugidos%NULL%2, Manuel%Muñoz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%0, Reyna Jazmín%Martínez Arriaga%NULL%2, Reyna Jazmín%Martínez Arriaga%NULL%0, Martha Alicia%Hernández-Gonzalez%NULL%2, Martha Alicia%Hernández-Gonzalez%NULL%0, José María%De la Roca-Chiapas%NULL%2, José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Starting from the first months of 2020, worldwide population has been facing the COVID-19 pandemic.
+ Many nations, including Italy, took extreme actions to reduce the diffusion of the virus, profoundly changing lifestyles.
+ The Italians have been faced with both the fear of contracting the infection and the consequences of enforcing social distancing.
+ This study was aimed to understand the psychological impact of the COVID-19 outbreak and the psychopathological outcomes related to the first phase of this emergency.
+ Methods: The study included 2291 respondents.
+ An online survey collected information on socio-demographic variables, history of direct or indirect contact with COVID-19, and additional information concerning the COVID-19 emergency.
+ Moreover, psychopathological symptoms such as anxiety, mood alterations and post-traumatic symptomatology were assessed.
+ Results: The results revealed that respectively 31.38%, 37.19% and 27.72% of respondents reported levels of general psychopathological symptomatology, anxiety, and PTSD symptoms over the cut-off scores.
+ Furthermore, a significant worsening of mood has emerged.
+ Being a female or under the age of 50 years, having had direct contact with people infected by the COVID-19, and experiencing uncertainty about the risk of contagion represent risk factors for psychological distress.
+ Conclusions: Our findings indicate that the first weeks of the COVID-19 pandemic appear to impact not only on physical health but also on psychological well-being.
+ Although these results need to be considered with caution being based on self-reported data collected at the beginning of this emergency, they should be used as a starting point for further studies aimed to develop interventions to minimize both the brief and long-term psychological consequences of the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%0, Francesca%Favieri%NULL%2, Francesca%Favieri%NULL%0, Renata%Tambelli%NULL%2, Renata%Tambelli%NULL%0, Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%0, Farah%Ghrissi%NULL%1, Bouthaina%Abbassi%NULL%1, Wissal%Cherif%NULL%1, Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par26"&gt;The psychological impact of outbreaks on individuals includes an intense and wide range of psychiatric morbidities.
+ People are likely to experience feelings as; worry about being infected or getting sick, increased self-blame, and helplessness.
+ This study aimed to assess the impact of COVID-19 on mental health and social support among Egyptian adults during the period of the pandemic.
+ This is a cross-sectional observational study using an anonymous online questionnaire.
+ The survey was conducted through a link shared on social networking sites.
+ It was conducted from 2 May 2020 to 9 May 2020. The general populations of the Egyptian adults were included by using convenience and snowball sampling technique (510 adults).
+ Impact Event scale mean 34.3 ± 15. About 211 (41.4%) suffered a severe impact.
+ There was an increase in stress from work in 174 (34.1%), financial stress in 284 (55.7%), and stress from home in 320 (62.7%).
+ Half of them felt horrified and helpless in 275 (53.9%), and 265 (52%) respectively, while 338 (66.3%) felt apprehensive.
+ only 24.2% reported increased support from friends, while increased support from family members in 207 (40.6%).
+ 46.5% shared their feelings with family members, while 176 (34.5%) shared with others.
+ Caring for family members’ feelings increased in 330 (64.7%).
+ Age and rural residency were negative predictors for the impact of event score, while female gender or presence of chronic condition was a positive predictor for the impact of event score.
+ Covid-19 pandemic has a great psychological impact on adult Egyptians and affected social support.
+</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%0, Enayat M.%Soltan%enayatsoltan@gmail.com%2, Enayat M.%Soltan%enayatsoltan@gmail.com%0, Hend M.%Salama%hind_mikhail@yahoo.com%2, Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%0, Charles B%Malpas%NULL%2, Charles B%Malpas%NULL%0, Aidan JC%Burrell%NULL%1, Caroline%Gurvich%NULL%1, Leo%Chen%NULL%1, Jayashri%Kulkarni%NULL%1, Toby%Winton-Brown%NULL%2, Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%0, Regino%Piñeiro-Lamas%NULL%1, César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0, Yasmeen%Byrnes%NULL%2, Yasmeen%Byrnes%NULL%0, Changgee%Chang%NULL%2, Aman%Prasad%NULL%1, Kevin%Chorath%NULL%2, Kevin%Chorath%NULL%0, Seerat K.%Poonia%NULL%1, Carolyn M.%Jenks%NULL%1, Andrés M.%Bur%NULL%1, Punam%Thakkar%NULL%2, Punam%Thakkar%NULL%0, Evan M.%Graboyes%NULL%2, Evan M.%Graboyes%NULL%0, Rahul%Seth%NULL%2, Rahul%Seth%NULL%0, Samuel%Trosman%NULL%1, Anni%Wong%NULL%2, Anni%Wong%NULL%0, Benjamin M.%Laitman%NULL%1, Brianna N.%Harris%NULL%1, Janki%Shah%NULL%2, Janki%Shah%NULL%0, Vanessa%Stubbs%NULL%1, Garret%Choby%NULL%1, Qi%Long%NULL%2, Christopher H.%Rassekh%NULL%1, Erica%Thaler%NULL%1, Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0, Antonio%Bertelli%NULL%1, Antonio%Gonçalves%NULL%1, Emily%Getzen%NULL%1, Changgee%Chang%NULL%0, Qi%Long%NULL%0, Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%0, Benjamin%Becker%NULL%2, Qian%Yu%NULL%2, Peter%Willeit%NULL%2, Can%Jiao%NULL%2, Liuyue%Huang%NULL%2, M. Mahhub%Hossain%NULL%2, Igor%Grabovac%NULL%3, Albert%Yeung%NULL%2, Jingyuan%Lin%NULL%2, Nicola%Veronese%NULL%0, Jian%Wang%NULL%0, Xinqi%Zhou%NULL%2, Scott R.%Doig%NULL%2, Xiaofeng%Liu%NULL%2, Andre F.%Carvalho%NULL%2, Lin%Yang%NULL%0, Tao%Xiao%NULL%2, Liye%Zou%NULL%2, Paolo%Fusar-Poli%NULL%2, Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%0, Jinghao Nicholas%Ngiam%NULL%1, Benjamin Yong-Qiang%Tan%NULL%2, Benjamin Yong-Qiang%Tan%NULL%0, Sai-Meng%Tham%NULL%1, Celine Yan-Shan%Tan%NULL%1, Mingxue%Jing%NULL%0, Renarebecca%Sagayanathan%NULL%0, Jin Tao%Chen%NULL%0, Lily Y. H.%Wong%NULL%1, Aftab%Ahmad%NULL%0, Faheem Ahmed%Khan%NULL%0, Maznah%Marmin%NULL%1, Fadhlina Binte%Hassan%NULL%1, Tai Mei-Ling%Sharon%NULL%1, Chin Han%Lim%NULL%1, Mohamad Iqbal Bin%Mohaini%NULL%1, Rivan%Danuaji%NULL%1, Thang H.%Nguyen%NULL%1, Georgios%Tsivgoulis%NULL%2, Sotirios%Tsiodras%NULL%1, Paraskevi C.%Fragkou%NULL%1, Dimitra%Dimopoulou%NULL%2, Dimitra%Dimopoulou%NULL%0, Arvind K.%Sharma%NULL%2, Kenam%Shah%NULL%2, Bhargesh%Patel%NULL%2, Suktara%Sharma%NULL%1, R. N.%Komalkumar%NULL%1, R. V.%Meenakshi%NULL%1, Shikha%Talati%NULL%1, Hock Luen%Teoh%NULL%0, Cyrus S.%Ho%NULL%0, Roger C.%Ho%NULL%0, Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%0, Qin%Cui%NULL%1, Zhongchun%Liu%NULL%0, Juanjuan%Li%NULL%1, Xuan%Gong%NULL%1, Jingfang%Liu%NULL%1, Zhiying%Wan%NULL%1, Xiaoping%Yuan%NULL%1, Xiaofen%Li%NULL%0, Chuang%Chen%NULL%1, Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Levels of anxiety, depression, stress and insomnia were higher in psychiatric patients.
+</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%0, Wanqiu%Tan%NULL%0, Li%Jiang%NULL%0, Ling%Zhang%NULL%0, Xinling%Zhao%NULL%0, Yiran%Zou%NULL%0, Yirong%Hu%NULL%0, Xi%Luo%NULL%0, Xiaojiang%Jiang%NULL%0, Roger S.%McIntyre%NULL%0, Bach%Tran%NULL%0, Jiaqian%Sun%NULL%1, Zhisong%Zhang%NULL%0, Roger%Ho%NULL%0, Cyrus%Ho%NULL%0, Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par8"&gt;The purposes of this study was to assess the youth mental health after the coronavirus disease 19 (COVID-19) occurred in China two weeks later, and to investigate factors of mental health among youth groups.
+ A cross-sectional study was conducted two weeks after the occurrence of COVID-19 in China.
+ A total of 584 youth enrolled in this study and completed the question about cognitive status of COVID-19, the General Health Questionnaire(GHQ-12), the PTSD Checklist-Civilian Version (PCL-C) and the Negative coping styles scale.
+ Univariate analysis and univariate logistic regression were used to evaluate the effect of COVID-19 on youth mental health.
+ The results of this cross-sectional study suggest that nearly 40.4% the sampled youth were found to be prone to psychological problems and 14.4% the sampled youth with Post-traumatic stress disorder (PTSD) symptoms.
+ Univariate logistic regression revealed that youth mental health was significantly related to being less educated (OR = 8.71, 95%CI:1.97–38.43), being the enterprise employee (OR = 2.36, 95%CI:1.09–5.09), suffering from the PTSD symptom (OR = 1.05, 95%CI:1.03–1.07) and using negative coping styles (OR = 1.03, 95%CI:1.00–1.07).
+ Results of this study suggest that nearly 40.4% of the youth group had a tendency to have psychological problems.
+ Thus, this was a remarkable evidence that infectious diseases, such as COVID-19, may have an immense influence on youth mental health.
+ Therefor, local governments should develop effective psychological interventions for youth groups, moreover, it is important to consider the educational level and occupation of the youth during the interventions.
+</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%0, Hui%Ren%NULL%1, Ruilin%Cao%NULL%1, Yueyang%Hu%NULL%1, Zeying%Qin%NULL%1, Chuanen%Li%NULL%1, Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -6604,10 +7478,10 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>1974</v>
       </c>
       <c r="E2" t="s">
-        <v>1802</v>
+        <v>1975</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -6619,10 +7493,10 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6639,7 +7513,7 @@
         <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>1977</v>
       </c>
       <c r="F3" t="s">
         <v>90</v>
@@ -6651,10 +7525,10 @@
         <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -6668,10 +7542,10 @@
         <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>1978</v>
       </c>
       <c r="E4" t="s">
-        <v>1803</v>
+        <v>1979</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -6683,10 +7557,10 @@
         <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6703,7 +7577,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>1804</v>
+        <v>1981</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -6715,10 +7589,10 @@
         <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6732,10 +7606,10 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>1983</v>
       </c>
       <c r="E6" t="s">
-        <v>1805</v>
+        <v>1984</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -6747,10 +7621,10 @@
         <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6764,10 +7638,10 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>871</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>1806</v>
+        <v>1985</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -6779,10 +7653,10 @@
         <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>1314</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -6796,10 +7670,10 @@
         <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>1987</v>
       </c>
       <c r="E8" t="s">
-        <v>1807</v>
+        <v>1988</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -6811,10 +7685,10 @@
         <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6831,7 +7705,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1808</v>
+        <v>1990</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -6843,10 +7717,10 @@
         <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6863,7 +7737,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>1809</v>
+        <v>1992</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -6875,10 +7749,10 @@
         <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -6889,28 +7763,28 @@
         <v>44044</v>
       </c>
       <c r="C11" t="s">
-        <v>622</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>1005</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>1445</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
         <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>1446</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6924,10 +7798,10 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>1993</v>
       </c>
       <c r="E12" t="s">
-        <v>1810</v>
+        <v>1994</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -6939,10 +7813,10 @@
         <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -6956,10 +7830,10 @@
         <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>878</v>
+        <v>1995</v>
       </c>
       <c r="E13" t="s">
-        <v>1811</v>
+        <v>1996</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -6971,10 +7845,10 @@
         <v>128</v>
       </c>
       <c r="I13" t="s">
-        <v>1314</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -6991,7 +7865,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>1812</v>
+        <v>1998</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -7003,10 +7877,10 @@
         <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -7023,7 +7897,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>1813</v>
+        <v>2000</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -7035,10 +7909,10 @@
         <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -7055,7 +7929,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>1814</v>
+        <v>2001</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -7067,10 +7941,10 @@
         <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -7084,10 +7958,10 @@
         <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>883</v>
+        <v>2003</v>
       </c>
       <c r="E17" t="s">
-        <v>1815</v>
+        <v>2004</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -7099,10 +7973,10 @@
         <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>1314</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -7113,25 +7987,25 @@
         <v>43973</v>
       </c>
       <c r="C18" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>1816</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
         <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>1319</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
         <v>97</v>
@@ -7148,10 +8022,10 @@
         <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>2006</v>
       </c>
       <c r="E19" t="s">
-        <v>1817</v>
+        <v>2007</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -7163,10 +8037,10 @@
         <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -7180,10 +8054,10 @@
         <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>2009</v>
       </c>
       <c r="E20" t="s">
-        <v>1818</v>
+        <v>2010</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -7195,10 +8069,10 @@
         <v>149</v>
       </c>
       <c r="I20" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -7215,7 +8089,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>1819</v>
+        <v>2011</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -7227,10 +8101,10 @@
         <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -7244,10 +8118,10 @@
         <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>2012</v>
       </c>
       <c r="E22" t="s">
-        <v>1820</v>
+        <v>2013</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -7259,10 +8133,10 @@
         <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -7279,7 +8153,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>1821</v>
+        <v>2015</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -7291,10 +8165,10 @@
         <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -7308,10 +8182,10 @@
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>891</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>1822</v>
+        <v>2017</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -7323,10 +8197,10 @@
         <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>1314</v>
+        <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -7343,7 +8217,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>1823</v>
+        <v>2018</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -7355,10 +8229,10 @@
         <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -7372,10 +8246,10 @@
         <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>2019</v>
       </c>
       <c r="E26" t="s">
-        <v>1824</v>
+        <v>2020</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -7387,10 +8261,10 @@
         <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -7404,10 +8278,10 @@
         <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>2021</v>
       </c>
       <c r="E27" t="s">
-        <v>1825</v>
+        <v>2022</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -7419,10 +8293,10 @@
         <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -7436,10 +8310,10 @@
         <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>2023</v>
       </c>
       <c r="E28" t="s">
-        <v>1826</v>
+        <v>2024</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -7451,10 +8325,10 @@
         <v>180</v>
       </c>
       <c r="I28" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -7471,7 +8345,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>1827</v>
+        <v>2025</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -7483,10 +8357,10 @@
         <v>184</v>
       </c>
       <c r="I29" t="s">
-        <v>1314</v>
+        <v>97</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -7503,7 +8377,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>1828</v>
+        <v>2027</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -7515,10 +8389,10 @@
         <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J30" t="s">
-        <v>97</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -7532,10 +8406,10 @@
         <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>2028</v>
       </c>
       <c r="E31" t="s">
-        <v>1829</v>
+        <v>2029</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -7547,10 +8421,10 @@
         <v>192</v>
       </c>
       <c r="I31" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -7564,10 +8438,10 @@
         <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>2031</v>
       </c>
       <c r="E32" t="s">
-        <v>1830</v>
+        <v>2032</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -7579,10 +8453,10 @@
         <v>196</v>
       </c>
       <c r="I32" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -7593,28 +8467,28 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>2034</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
+        <v>2035</v>
       </c>
       <c r="E33" t="s">
-        <v>1831</v>
+        <v>2036</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>2037</v>
       </c>
       <c r="G33" t="s">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -7631,7 +8505,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>1832</v>
+        <v>2039</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -7643,10 +8517,10 @@
         <v>120</v>
       </c>
       <c r="I34" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -7660,10 +8534,10 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>2041</v>
       </c>
       <c r="E35" t="s">
-        <v>1833</v>
+        <v>2042</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -7675,10 +8549,10 @@
         <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -7692,10 +8566,10 @@
         <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>2043</v>
       </c>
       <c r="E36" t="s">
-        <v>1834</v>
+        <v>2044</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -7707,10 +8581,10 @@
         <v>210</v>
       </c>
       <c r="I36" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J36" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -7724,10 +8598,10 @@
         <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>2045</v>
       </c>
       <c r="E37" t="s">
-        <v>1835</v>
+        <v>2046</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -7739,10 +8613,10 @@
         <v>214</v>
       </c>
       <c r="I37" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -7759,7 +8633,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>1836</v>
+        <v>2047</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -7771,10 +8645,10 @@
         <v>218</v>
       </c>
       <c r="I38" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -7785,25 +8659,25 @@
         <v>44058</v>
       </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
         <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
         <v>120</v>
       </c>
       <c r="I39" t="s">
-        <v>1319</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
         <v>97</v>
@@ -7817,25 +8691,25 @@
         <v>44256</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>1837</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
         <v>120</v>
       </c>
       <c r="I40" t="s">
-        <v>1319</v>
+        <v>97</v>
       </c>
       <c r="J40" t="s">
         <v>97</v>
@@ -7852,10 +8726,10 @@
         <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>2048</v>
       </c>
       <c r="E41" t="s">
-        <v>1838</v>
+        <v>2049</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -7867,10 +8741,10 @@
         <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7887,7 +8761,7 @@
         <v>223</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>2050</v>
       </c>
       <c r="F42" t="s">
         <v>225</v>
@@ -7899,10 +8773,10 @@
         <v>226</v>
       </c>
       <c r="I42" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J42" t="s">
-        <v>97</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7913,25 +8787,25 @@
         <v>44039</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>1839</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
         <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>1319</v>
+        <v>97</v>
       </c>
       <c r="J43" t="s">
         <v>97</v>
@@ -7948,10 +8822,10 @@
         <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>2052</v>
       </c>
       <c r="E44" t="s">
-        <v>1840</v>
+        <v>2053</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -7963,10 +8837,10 @@
         <v>230</v>
       </c>
       <c r="I44" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -7980,10 +8854,10 @@
         <v>231</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
+        <v>2054</v>
       </c>
       <c r="E45" t="s">
-        <v>1841</v>
+        <v>2055</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -7995,10 +8869,10 @@
         <v>234</v>
       </c>
       <c r="I45" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -8015,7 +8889,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>1842</v>
+        <v>2057</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -8027,10 +8901,10 @@
         <v>238</v>
       </c>
       <c r="I46" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -8044,10 +8918,10 @@
         <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>2058</v>
       </c>
       <c r="E47" t="s">
-        <v>1843</v>
+        <v>2059</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -8059,10 +8933,10 @@
         <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -8079,7 +8953,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>1844</v>
+        <v>2060</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -8091,10 +8965,10 @@
         <v>246</v>
       </c>
       <c r="I48" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J48" t="s">
-        <v>97</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -8108,10 +8982,10 @@
         <v>247</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>2061</v>
       </c>
       <c r="E49" t="s">
-        <v>1845</v>
+        <v>2062</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -8123,10 +8997,10 @@
         <v>250</v>
       </c>
       <c r="I49" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -8140,10 +9014,10 @@
         <v>251</v>
       </c>
       <c r="D50" t="s">
-        <v>252</v>
+        <v>2063</v>
       </c>
       <c r="E50" t="s">
-        <v>1846</v>
+        <v>2064</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -8155,10 +9029,10 @@
         <v>254</v>
       </c>
       <c r="I50" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -8175,7 +9049,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>1847</v>
+        <v>2065</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -8187,10 +9061,10 @@
         <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -8204,10 +9078,10 @@
         <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>2067</v>
       </c>
       <c r="E52" t="s">
-        <v>1848</v>
+        <v>2068</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -8219,10 +9093,10 @@
         <v>242</v>
       </c>
       <c r="I52" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -8239,7 +9113,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>1849</v>
+        <v>2069</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -8251,10 +9125,10 @@
         <v>263</v>
       </c>
       <c r="I53" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -8268,10 +9142,10 @@
         <v>264</v>
       </c>
       <c r="D54" t="s">
-        <v>920</v>
+        <v>2070</v>
       </c>
       <c r="E54" t="s">
-        <v>1850</v>
+        <v>2071</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -8283,10 +9157,10 @@
         <v>120</v>
       </c>
       <c r="I54" t="s">
-        <v>1314</v>
+        <v>97</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -8303,7 +9177,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>1851</v>
+        <v>2072</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -8315,10 +9189,10 @@
         <v>120</v>
       </c>
       <c r="I55" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -8329,28 +9203,28 @@
         <v>44166</v>
       </c>
       <c r="C56" t="s">
-        <v>668</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>1048</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>1490</v>
+        <v>120</v>
       </c>
       <c r="I56" t="s">
         <v>97</v>
       </c>
       <c r="J56" t="s">
-        <v>1491</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -8367,7 +9241,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>1852</v>
+        <v>2073</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -8379,10 +9253,10 @@
         <v>273</v>
       </c>
       <c r="I57" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J57" t="s">
-        <v>97</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -8399,7 +9273,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>1853</v>
+        <v>2074</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -8411,10 +9285,10 @@
         <v>254</v>
       </c>
       <c r="I58" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -8431,7 +9305,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>1854</v>
+        <v>2076</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -8443,10 +9317,10 @@
         <v>120</v>
       </c>
       <c r="I59" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J59" t="s">
-        <v>97</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -8463,7 +9337,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>1855</v>
+        <v>2077</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -8475,10 +9349,10 @@
         <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J60" t="s">
-        <v>97</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -8495,7 +9369,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>1856</v>
+        <v>2078</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -8507,10 +9381,10 @@
         <v>287</v>
       </c>
       <c r="I61" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J61" t="s">
-        <v>97</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -8527,7 +9401,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>1857</v>
+        <v>2079</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -8539,10 +9413,10 @@
         <v>291</v>
       </c>
       <c r="I62" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J62" t="s">
-        <v>97</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -8553,25 +9427,25 @@
         <v>44105</v>
       </c>
       <c r="C63" t="s">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>1858</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s">
         <v>120</v>
       </c>
       <c r="I63" t="s">
-        <v>1319</v>
+        <v>97</v>
       </c>
       <c r="J63" t="s">
         <v>97</v>
@@ -8591,7 +9465,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>1859</v>
+        <v>2007</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -8603,10 +9477,10 @@
         <v>120</v>
       </c>
       <c r="I64" t="s">
-        <v>1311</v>
+        <v>97</v>
       </c>
       <c r="J64" t="s">
-        <v>97</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -8620,10 +9494,10 @@
         <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>2081</v>
       </c>
       <c r="E65" t="s">
-        <v>1860</v>
+        <v>2082</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -8635,10 +9509,10 @@
         <v>298</v>
       </c>
       <c r="I65" t="s">
-        <v>1308</v>
+        <v>97</v>
       </c>
       <c r="J65" t="s">
-        <v>97</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -8652,10 +9526,10 @@
         <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>933</v>
+        <v>2083</v>
       </c>
       <c r="E66" t="s">
-        <v>1861</v>
+        <v>2084</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>
@@ -8667,10 +9541,10 @@
         <v>120</v>
       </c>
       <c r="I66" t="s">
-        <v>1314</v>
+        <v>97</v>
       </c>
       <c r="J66" t="s">
-        <v>97</v>
+        <v>1997</v>
       </c>
     </row>
   </sheetData>
